--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="user stories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>FULL STACK DEVELOPER TESZT FELADAT</t>
   </si>
@@ -164,6 +165,78 @@
   </si>
   <si>
     <t>not part of the scope, but worth considering..</t>
+  </si>
+  <si>
+    <t>web authorization is not in scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>not needed</t>
+  </si>
+  <si>
+    <t>git created</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>name 120 characters long</t>
+  </si>
+  <si>
+    <t>check length</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>EF 6.0</t>
+  </si>
+  <si>
+    <t>what if service is down?</t>
+  </si>
+  <si>
+    <t>validate on textchanged</t>
+  </si>
+  <si>
+    <t>quick feedback</t>
+  </si>
+  <si>
+    <t>validate at server before create</t>
+  </si>
+  <si>
+    <t>ensuring integrity</t>
+  </si>
+  <si>
+    <t>autofill for email?</t>
+  </si>
+  <si>
+    <t>improves comfort, reduces security?</t>
+  </si>
+  <si>
+    <t>I need to identify myself properly</t>
+  </si>
+  <si>
+    <t>As an administrator of products..</t>
+  </si>
+  <si>
+    <t>valid e-mail</t>
+  </si>
+  <si>
+    <t>All data is visible on one screen without scrolling</t>
+  </si>
+  <si>
+    <t>I'm well informed about the state of the action I'm doing</t>
+  </si>
+  <si>
+    <t>I can filter a list of products</t>
+  </si>
+  <si>
+    <t>I can easily select a category for a product</t>
+  </si>
+  <si>
+    <t>I need notifications when something is missing</t>
   </si>
 </sst>
 </file>
@@ -208,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,12 +289,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4B4B"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFD5151"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,17 +696,33 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -535,8 +738,11 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -546,8 +752,14 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>2</v>
@@ -558,10 +770,13 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:A39" si="0">A7+1</f>
+        <f t="shared" ref="A8:A60" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" t="s">
@@ -571,7 +786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -583,7 +798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -595,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -607,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -618,8 +833,11 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -631,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A13+1</f>
         <v>9</v>
@@ -642,26 +860,32 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -673,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -685,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -700,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -712,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -724,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -739,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -750,35 +974,38 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -787,7 +1014,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
@@ -799,7 +1026,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
@@ -808,25 +1035,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
@@ -838,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -850,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -862,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
@@ -874,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -886,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
@@ -898,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
@@ -906,14 +1133,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,17 +1151,266 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43417</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43417</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43417</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B16:B36">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(ISBLANK($D15),NOT(ISBLANK($C15)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND(NOT(ISBLANK($D15)),NOT(ISBLANK($C15)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>ISBLANK($D15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:XFD1048576 A36:A1048576">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+      <formula>AND(ISBLANK($D37),NOT(ISBLANK($C37)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="17">
+      <formula>AND(NOT(ISBLANK($D37)),NOT(ISBLANK($C37)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="18">
+      <formula>ISBLANK($D37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>AND(ISBLANK($D1),NOT(ISBLANK($C1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(NOT(ISBLANK($D1)),NOT(ISBLANK($C1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>ISBLANK($D1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="user stories" sheetId="2" r:id="rId2"/>
+    <sheet name="user stories" sheetId="2" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
   <si>
     <t>FULL STACK DEVELOPER TESZT FELADAT</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>price NOT NULL double</t>
-  </si>
-  <si>
-    <t>remarks</t>
   </si>
   <si>
     <t>databasedependent</t>
@@ -188,9 +185,6 @@
     <t>check length</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>EF 6.0</t>
   </si>
   <si>
@@ -237,6 +231,189 @@
   </si>
   <si>
     <t>I need notifications when something is missing</t>
+  </si>
+  <si>
+    <t>In Hungary, the decimal comma should be accepted in the Price field</t>
+  </si>
+  <si>
+    <t>I expect the update time to be the time of saving an item</t>
+  </si>
+  <si>
+    <t>I expect the creation time to remain across updates</t>
+  </si>
+  <si>
+    <t>user stories added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class diagram, </t>
+  </si>
+  <si>
+    <t>doc page added, edited</t>
+  </si>
+  <si>
+    <t>separate table</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>no validation required</t>
+  </si>
+  <si>
+    <t>minvalue specified!!!</t>
+  </si>
+  <si>
+    <t>api validation</t>
+  </si>
+  <si>
+    <t>not updating</t>
+  </si>
+  <si>
+    <t>excluded from viewsa</t>
+  </si>
+  <si>
+    <t>e-mail address</t>
+  </si>
+  <si>
+    <t>very basic, needed further authorization (Oauth)</t>
+  </si>
+  <si>
+    <t>API client</t>
+  </si>
+  <si>
+    <t>don't want dropdowns</t>
+  </si>
+  <si>
+    <t>currently all fields use that which is wrong</t>
+  </si>
+  <si>
+    <t>checks on updates only. During editing no call is made (if that's needed, non-blocking, async queries are needed)</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>nice looking on mobile as well</t>
+  </si>
+  <si>
+    <t>validation text</t>
+  </si>
+  <si>
+    <t>sometimes it remained English - need fixing</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>react / angular should do it</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>seems ok, BUT creating a new category is not available instantly</t>
+  </si>
+  <si>
+    <t>todo: translate all</t>
+  </si>
+  <si>
+    <t>MISSING!!!</t>
+  </si>
+  <si>
+    <t>decimal vs. Currency validation is causing deadlock in binding</t>
+  </si>
+  <si>
+    <t>Product.Update() method</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>on data-level it is not read-only!</t>
+  </si>
+  <si>
+    <t>ootb</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>not implemented</t>
+  </si>
+  <si>
+    <t>not to be implemented</t>
+  </si>
+  <si>
+    <t>sql express</t>
+  </si>
+  <si>
+    <t>mvc</t>
+  </si>
+  <si>
+    <t>documentations?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>angular</t>
+  </si>
+  <si>
+    <t>not relevant</t>
+  </si>
+  <si>
+    <t>editing inline would be good</t>
+  </si>
+  <si>
+    <t>foreigh key</t>
+  </si>
+  <si>
+    <t>login?</t>
+  </si>
+  <si>
+    <t>cannot validate Hungarian (non-us) formats with comma</t>
+  </si>
+  <si>
+    <t>model - controller - view - services</t>
+  </si>
+  <si>
+    <t>issues / remarks</t>
+  </si>
+  <si>
+    <t>validation messages in Hungarian</t>
+  </si>
+  <si>
+    <t>jquery.validation + attributes</t>
+  </si>
+  <si>
+    <t>deleting existing category</t>
+  </si>
+  <si>
+    <t>price!!!</t>
+  </si>
+  <si>
+    <t>cascade rule applied by deleting corresponding products</t>
+  </si>
+  <si>
+    <t>CRUD operations + api calls at least</t>
+  </si>
+  <si>
+    <t>log4net</t>
+  </si>
+  <si>
+    <t>webdeploy, web.config</t>
   </si>
 </sst>
 </file>
@@ -261,15 +438,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,66 +466,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -683,10 +848,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A60"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +1012,8 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,17 +1021,17 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,610 +1039,882 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <f t="shared" ref="A8:A60" si="0">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <f>A13+1</f>
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <f>A35+1</f>
         <v>31</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38" s="4">
+        <v>43417</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43417</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43417</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43418</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43418</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="E37" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C38" s="3">
-        <v>43417</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="3">
-        <v>43417</v>
-      </c>
-      <c r="E39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="3">
-        <v>43417</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16:B36">
@@ -1361,59 +1953,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>